--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FFB97-697A-404B-AA57-E1BC526D9256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94308F00-7488-4DBC-B51D-5C1B80E586BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="November" sheetId="6" r:id="rId1"/>
     <sheet name="December" sheetId="19" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateCount="500"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -194,6 +194,42 @@
   </si>
   <si>
     <t>Corrected the APIs in B2B and B2C to display data in JobSheet and for jobs creation</t>
+  </si>
+  <si>
+    <t>Jobs display</t>
+  </si>
+  <si>
+    <t>Warranty_type,email,address information added</t>
+  </si>
+  <si>
+    <t>Rlogic GL</t>
+  </si>
+  <si>
+    <t>Rlogic PL</t>
+  </si>
+  <si>
+    <t>GL creation for Rlogic</t>
+  </si>
+  <si>
+    <t>GL completion and PL started</t>
+  </si>
+  <si>
+    <t>PL creation</t>
+  </si>
+  <si>
+    <t>Sony Asctax</t>
+  </si>
+  <si>
+    <t>Sony Asctax creation</t>
+  </si>
+  <si>
+    <t>Sony Asctax creation and integration</t>
+  </si>
+  <si>
+    <t>Sony Asctax and gsttax</t>
+  </si>
+  <si>
+    <t>Sony Asctax and gsttax integration</t>
   </si>
 </sst>
 </file>
@@ -1095,17 +1131,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DCB244-083B-48EE-ACB3-5D3F19CBA10C}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -1365,6 +1401,186 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16">
+        <v>44181</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44182</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="16">
+        <v>44183</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="16">
+        <v>44186</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44187</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16">
+        <v>44188</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44189</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44193</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44194</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94308F00-7488-4DBC-B51D-5C1B80E586BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29419EF3-61C9-43DC-80D2-EB932F70A0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>Task</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Sony Asctax and gsttax integration</t>
+  </si>
+  <si>
+    <t>Sony Asctax and gsttax integration,corrections</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -369,17 +375,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -412,17 +412,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -749,7 +788,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="24" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
@@ -761,7 +800,7 @@
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -784,7 +823,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>43872</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -799,20 +838,20 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>0.7</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -823,29 +862,29 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="B4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>43901</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>0.8</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -853,90 +892,90 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>43932</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>43962</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>43993</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>44085</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>44115</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>44146</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>44176</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>0.4</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -944,16 +983,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.7</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -961,17 +1000,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -979,17 +1018,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="28.8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>0.3</v>
       </c>
       <c r="F17" t="s">
@@ -997,17 +1036,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>0.3</v>
       </c>
       <c r="F18" t="s">
@@ -1015,17 +1054,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="28.8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>0.3</v>
       </c>
       <c r="F19" t="s">
@@ -1033,17 +1072,17 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>0.5</v>
       </c>
       <c r="F20" t="s">
@@ -1051,17 +1090,17 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1069,17 +1108,17 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>0.3</v>
       </c>
       <c r="F22" t="s">
@@ -1087,16 +1126,16 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>0.8</v>
       </c>
       <c r="F23" t="s">
@@ -1104,16 +1143,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>0.8</v>
       </c>
       <c r="F24" t="s">
@@ -1121,7 +1160,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="D25" s="21"/>
+      <c r="D25" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,124 +1170,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DCB244-083B-48EE-ACB3-5D3F19CBA10C}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="38" customWidth="1"/>
     <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>44166</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="40">
         <v>0.9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>44167</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>44168</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="40">
         <v>0.3</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>44168</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="40">
         <v>0.7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" s="9">
@@ -1257,81 +1296,81 @@
       <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="40">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="32">
         <v>7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>44172</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="41">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="32">
         <v>8</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>44173</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="41">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="32">
         <v>9</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>44174</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="41">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="32">
         <v>11</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>44175</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1340,32 +1379,32 @@
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="41">
         <v>0.2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="32">
         <v>12</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>44176</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="32">
         <v>13</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>44179</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1374,18 +1413,18 @@
       <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="41">
         <v>0.4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="32">
         <v>14</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>44180</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1394,18 +1433,18 @@
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="41">
         <v>0.8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="32">
         <v>15</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>44181</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1414,18 +1453,18 @@
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="41">
         <v>0.8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="32">
         <v>16</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>44182</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1434,18 +1473,18 @@
       <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="41">
         <v>0.8</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="32">
         <v>17</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>44183</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1454,18 +1493,18 @@
       <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="41">
         <v>0.8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="32">
         <v>18</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>44186</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1474,18 +1513,18 @@
       <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="41">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="32">
         <v>19</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>44187</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1494,18 +1533,18 @@
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="41">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="32">
         <v>20</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>44188</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1514,18 +1553,18 @@
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="41">
         <v>0.6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="A20" s="32">
         <v>21</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>44189</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1534,18 +1573,18 @@
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="41">
         <v>0.6</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="A21" s="32">
         <v>22</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>44193</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1554,18 +1593,18 @@
       <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="41">
         <v>0.6</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="32">
         <v>23</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>44194</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1574,11 +1613,51 @@
       <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="41">
         <v>0.8</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>3</v>
+      <c r="F22" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="32">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14">
+        <v>44195</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="32">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14">
+        <v>44196</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29419EF3-61C9-43DC-80D2-EB932F70A0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3EAC0-EF61-4F73-9C26-0120EB1DB56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="November" sheetId="6" r:id="rId1"/>
-    <sheet name="December" sheetId="19" r:id="rId2"/>
+    <sheet name="November-2020" sheetId="6" r:id="rId1"/>
+    <sheet name="December-2020" sheetId="19" r:id="rId2"/>
+    <sheet name="Januray-2021" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateCount="500"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -236,6 +237,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Samsung RPA</t>
+  </si>
+  <si>
+    <t>DebitNite Register error correction,Invoice update correction</t>
+  </si>
+  <si>
+    <t>ApNewsis Report no data error,correction</t>
+  </si>
+  <si>
+    <t>Invoice update correction for loading file</t>
+  </si>
+  <si>
+    <t>ApNewsis Report  error,correction</t>
+  </si>
+  <si>
+    <t>Add partner error correction in B2B</t>
+  </si>
+  <si>
+    <t>13/01/2021</t>
+  </si>
+  <si>
+    <t>18/01/2021</t>
+  </si>
+  <si>
+    <t>updateimei error not updating imei no,corrected</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DCB244-083B-48EE-ACB3-5D3F19CBA10C}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1663,4 +1691,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71273FAB-72C7-4065-8E3D-36E6D656A517}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44317</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44348</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44378</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44501</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="32">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44531</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="32">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44176</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="32">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44179</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="32">
+        <v>14</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44180</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3EAC0-EF61-4F73-9C26-0120EB1DB56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54EB24-D3E5-4C99-849B-C34CCD6F3AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
   <si>
     <t>Task</t>
   </si>
@@ -264,6 +264,39 @@
   </si>
   <si>
     <t>updateimei error not updating imei no,corrected</t>
+  </si>
+  <si>
+    <t>19/01/2021</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>21/01/2021</t>
+  </si>
+  <si>
+    <t>Product information for Service Request in B2B</t>
+  </si>
+  <si>
+    <t>Manually created jobs doesn't show in the list -</t>
+  </si>
+  <si>
+    <t>view job in SR throwing error</t>
+  </si>
+  <si>
+    <t>Failure description in SR and JOB shows wrongly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warranty Status not get displayed in Jobs page </t>
+  </si>
+  <si>
+    <t>22/01/2021</t>
+  </si>
+  <si>
+    <t>25/01/2021</t>
+  </si>
+  <si>
+    <t>PL Generated</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71273FAB-72C7-4065-8E3D-36E6D656A517}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1898,47 +1931,117 @@
       <c r="B10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="27"/>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="32">
         <v>12</v>
       </c>
-      <c r="B11" s="14">
-        <v>44176</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="32">
         <v>13</v>
       </c>
-      <c r="B12" s="14">
-        <v>44179</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="32">
         <v>14</v>
       </c>
-      <c r="B13" s="14">
-        <v>44180</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="41">
+        <v>1</v>
+      </c>
       <c r="F13" s="27" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="32">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="41">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="32">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54EB24-D3E5-4C99-849B-C34CCD6F3AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C3F119-0059-487A-8A3D-14154A36588B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
   <si>
     <t>Task</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>PL Generated</t>
+  </si>
+  <si>
+    <t>27/01/2021</t>
+  </si>
+  <si>
+    <t>29/01/2021</t>
+  </si>
+  <si>
+    <t>B2B Report correction</t>
   </si>
 </sst>
 </file>
@@ -842,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -973,6 +982,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
       <c r="B8" s="21">
         <v>43993</v>
       </c>
@@ -982,6 +994,9 @@
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
       <c r="B9" s="21">
         <v>44085</v>
       </c>
@@ -991,6 +1006,9 @@
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
       <c r="B10" s="21">
         <v>44115</v>
       </c>
@@ -1000,6 +1018,9 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
       <c r="B11" s="21">
         <v>44146</v>
       </c>
@@ -1009,6 +1030,9 @@
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
       <c r="B12" s="21">
         <v>44176</v>
       </c>
@@ -1018,6 +1042,9 @@
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="16">
+        <v>10</v>
+      </c>
       <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
@@ -1027,6 +1054,9 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="16">
+        <v>11</v>
+      </c>
       <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
@@ -1044,6 +1074,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
       <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
@@ -1061,7 +1094,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="16"/>
+      <c r="A16" s="16">
+        <v>13</v>
+      </c>
       <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1114,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="28.8">
-      <c r="A17" s="16"/>
+      <c r="A17" s="16">
+        <v>14</v>
+      </c>
       <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1134,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="16">
+        <v>15</v>
+      </c>
       <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1154,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="28.8">
-      <c r="A19" s="16"/>
+      <c r="A19" s="16">
+        <v>16</v>
+      </c>
       <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +1174,9 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
+      <c r="A20" s="16">
+        <v>17</v>
+      </c>
       <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1194,9 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
+      <c r="A21" s="16">
+        <v>18</v>
+      </c>
       <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1214,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16">
+        <v>19</v>
+      </c>
       <c r="B22" s="23" t="s">
         <v>40</v>
       </c>
@@ -1187,6 +1234,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
       <c r="B23" s="23" t="s">
         <v>41</v>
       </c>
@@ -1204,6 +1254,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
       <c r="B24" s="23" t="s">
         <v>43</v>
       </c>
@@ -1728,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71273FAB-72C7-4065-8E3D-36E6D656A517}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2044,6 +2097,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="32">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="32">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C3F119-0059-487A-8A3D-14154A36588B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25E116-C451-458A-B1DE-B8515E3F8C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
     <sheet name="December-2020" sheetId="19" r:id="rId2"/>
     <sheet name="Januray-2021" sheetId="20" r:id="rId3"/>
+    <sheet name="February-2021" sheetId="21" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -306,13 +307,61 @@
   </si>
   <si>
     <t>B2B Report correction</t>
+  </si>
+  <si>
+    <t>Hayyai - B2B</t>
+  </si>
+  <si>
+    <t>Week Off</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>In B2B,corrected code manual SR creation error</t>
+  </si>
+  <si>
+    <t>RPA-SAMSUNG</t>
+  </si>
+  <si>
+    <t>credit information error as SSC4 is removed</t>
+  </si>
+  <si>
+    <t>Creation of new branch and new db</t>
+  </si>
+  <si>
+    <t>Checking user creation for new db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on data for new user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayyai - B2B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New user's menu privileges  </t>
+  </si>
+  <si>
+    <t>Product registration view all records and datewise search</t>
+  </si>
+  <si>
+    <t>Parts add API,update</t>
+  </si>
+  <si>
+    <t>Parts Excel download</t>
+  </si>
+  <si>
+    <t>Product registration view based on imei and serial no</t>
+  </si>
+  <si>
+    <t>Product registration excel download based on search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +393,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +433,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -420,6 +495,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -428,7 +514,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -532,6 +618,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1783,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71273FAB-72C7-4065-8E3D-36E6D656A517}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2140,4 +2256,343 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16ABD41-1FCC-4B5C-B89A-BC2038B3537E}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9">
+        <v>44228</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="45">
+        <v>1</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44229</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44230</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="45">
+        <v>1</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44231</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44232</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44233</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44234</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44235</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44236</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44237</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44238</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44239</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44240</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44241</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44242</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44243</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
+      <c r="A17" s="8">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44244</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25E116-C451-458A-B1DE-B8515E3F8C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D7D98-70EE-4A07-8EBA-178C47A3346C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -355,6 +355,21 @@
   </si>
   <si>
     <t>Product registration excel download based on search</t>
+  </si>
+  <si>
+    <t>Product registration add with few new fields</t>
+  </si>
+  <si>
+    <t>search products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new job </t>
+  </si>
+  <si>
+    <t>B2B for error correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B2B</t>
   </si>
 </sst>
 </file>
@@ -634,20 +649,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2260,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16ABD41-1FCC-4B5C-B89A-BC2038B3537E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2384,11 +2399,11 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
-      <c r="F6" s="50"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
@@ -2398,9 +2413,9 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
@@ -2510,11 +2525,11 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="51" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
@@ -2524,9 +2539,9 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="45"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
@@ -2578,20 +2593,187 @@
       <c r="C17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="50" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44245</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="45">
         <v>0.8</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F18" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44246</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44247</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44248</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44249</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44250</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44251</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44252</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44253</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D7D98-70EE-4A07-8EBA-178C47A3346C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2719DD7-B718-4EB3-94FC-DF163AA8F8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
     <sheet name="December-2020" sheetId="19" r:id="rId2"/>
     <sheet name="Januray-2021" sheetId="20" r:id="rId3"/>
     <sheet name="February-2021" sheetId="21" r:id="rId4"/>
+    <sheet name="March-2021" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>Task</t>
   </si>
@@ -370,6 +371,36 @@
   </si>
   <si>
     <t xml:space="preserve"> B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai B2B </t>
+  </si>
+  <si>
+    <t>Parts Information pending</t>
+  </si>
+  <si>
+    <t>B2B new layout Document and Design Modifications</t>
+  </si>
+  <si>
+    <t>Service Job management Screen modification</t>
+  </si>
+  <si>
+    <t>Warranty Extention - View &amp; download screen</t>
+  </si>
+  <si>
+    <t>Warranty Extention - EW invoice Details, Create new Job screen</t>
+  </si>
+  <si>
+    <t>Muji Store</t>
+  </si>
+  <si>
+    <t>Japanese version fully tested</t>
+  </si>
+  <si>
+    <t>Muji Store,Sonia,Nmvar</t>
+  </si>
+  <si>
+    <t>Japanese version fully tested, Sonia and Nmvar - UAT issues doc modified</t>
   </si>
 </sst>
 </file>
@@ -529,7 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -662,6 +693,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2277,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16ABD41-1FCC-4B5C-B89A-BC2038B3537E}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2777,4 +2814,456 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848AE4EB-720A-404F-9972-264595B5E1DB}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9">
+        <v>47908</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>47909</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>47910</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="45">
+        <v>1</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>47911</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="45">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>47912</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>47913</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>47914</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>47915</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>47916</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>47917</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>47918</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>47919</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>47920</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>47921</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9">
+        <v>47922</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>47923</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9">
+        <v>47924</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>47925</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9">
+        <v>47926</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9">
+        <v>47927</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
+        <v>47928</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9">
+        <v>47929</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9">
+        <v>47930</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9">
+        <v>47931</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9">
+        <v>47932</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9">
+        <v>47933</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9">
+        <v>47934</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9">
+        <v>47935</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2719DD7-B718-4EB3-94FC-DF163AA8F8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D47FF0-476B-41E6-9456-795892DDA8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
   <si>
     <t>Task</t>
   </si>
@@ -391,16 +391,34 @@
     <t>Warranty Extention - EW invoice Details, Create new Job screen</t>
   </si>
   <si>
-    <t>Muji Store</t>
-  </si>
-  <si>
-    <t>Japanese version fully tested</t>
-  </si>
-  <si>
-    <t>Muji Store,Sonia,Nmvar</t>
-  </si>
-  <si>
-    <t>Japanese version fully tested, Sonia and Nmvar - UAT issues doc modified</t>
+    <t>Warranty APIs development</t>
+  </si>
+  <si>
+    <t>New qmvar integration for PR Summary daily</t>
+  </si>
+  <si>
+    <t>New qmvar for sony daily task</t>
+  </si>
+  <si>
+    <t>Warranty excel download</t>
+  </si>
+  <si>
+    <t>New qmvar integration for PR Summary 10 days and Prdaily 10days</t>
+  </si>
+  <si>
+    <t>New qmvar integration for InvoiceupdateOOW weekly</t>
+  </si>
+  <si>
+    <t>New qmvar integration for InvoiceupdateOOW montly and service parts return</t>
+  </si>
+  <si>
+    <t>New qmvar integration for InvoiceupdateEXC and invoiceupdateIW montly and service parts return</t>
+  </si>
+  <si>
+    <t>Debitnoteregistermonthly and partsio qmvar integration</t>
+  </si>
+  <si>
+    <t>Issues and development of B2B</t>
   </si>
 </sst>
 </file>
@@ -560,7 +578,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,6 +704,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,12 +716,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2436,7 +2462,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2450,7 +2476,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2562,7 +2588,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="52" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2576,7 +2602,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2688,7 +2714,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2702,7 +2728,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -2818,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848AE4EB-720A-404F-9972-264595B5E1DB}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2840,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9">
-        <v>47908</v>
+        <v>44256</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>114</v>
@@ -2861,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9">
-        <v>47909</v>
+        <v>44257</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>114</v>
@@ -2882,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>47910</v>
+        <v>44258</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>114</v>
@@ -2903,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>47911</v>
+        <v>44259</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>114</v>
@@ -2924,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>47912</v>
+        <v>44260</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>114</v>
@@ -2945,10 +2971,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="9">
-        <v>47913</v>
+        <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2960,10 +2986,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="9">
-        <v>47914</v>
+        <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -2973,40 +2999,40 @@
         <v>8</v>
       </c>
       <c r="B8" s="9">
-        <v>47915</v>
+        <v>44263</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>121</v>
-      </c>
       <c r="E8" s="45">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>4</v>
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8">
+    <row r="9" spans="1:7">
       <c r="A9" s="8">
         <v>9</v>
       </c>
       <c r="B9" s="9">
-        <v>47916</v>
+        <v>44264</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" s="45">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>4</v>
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -3015,12 +3041,20 @@
         <v>10</v>
       </c>
       <c r="B10" s="9">
-        <v>47917</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="54"/>
+        <v>44265</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -3028,11 +3062,17 @@
         <v>11</v>
       </c>
       <c r="B11" s="9">
-        <v>47918</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="45"/>
+        <v>44266</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="1"/>
     </row>
@@ -3041,12 +3081,20 @@
         <v>12</v>
       </c>
       <c r="B12" s="9">
-        <v>47919</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="54"/>
+        <v>44267</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -3054,10 +3102,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="9">
-        <v>47920</v>
+        <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3067,10 +3115,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="9">
-        <v>47921</v>
+        <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3080,12 +3128,20 @@
         <v>15</v>
       </c>
       <c r="B15" s="9">
-        <v>47922</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="49"/>
+        <v>44270</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3093,38 +3149,62 @@
         <v>16</v>
       </c>
       <c r="B16" s="9">
-        <v>47923</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="49"/>
+        <v>44271</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="8">
         <v>17</v>
       </c>
       <c r="B17" s="9">
-        <v>47924</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="54"/>
+        <v>44272</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="45">
+        <v>1</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="28.8">
       <c r="A18" s="8">
         <v>18</v>
       </c>
       <c r="B18" s="9">
-        <v>47925</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="49"/>
+        <v>44273</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="45">
+        <v>1</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -3132,10 +3212,12 @@
         <v>19</v>
       </c>
       <c r="B19" s="9">
-        <v>47926</v>
+        <v>44274</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="48" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -3145,10 +3227,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9">
-        <v>47927</v>
+        <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3158,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="9">
-        <v>47928</v>
+        <v>44276</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="55"/>
@@ -3166,43 +3248,67 @@
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" s="8">
         <v>22</v>
       </c>
       <c r="B22" s="9">
-        <v>47929</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="54"/>
+        <v>44277</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="8">
         <v>23</v>
       </c>
       <c r="B23" s="9">
-        <v>47930</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="49"/>
+        <v>44278</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="28.8">
       <c r="A24" s="8">
         <v>24</v>
       </c>
       <c r="B24" s="9">
-        <v>47931</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="49"/>
+        <v>44279</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="45">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -3210,12 +3316,20 @@
         <v>25</v>
       </c>
       <c r="B25" s="9">
-        <v>47932</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="49"/>
+        <v>44280</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -3223,12 +3337,20 @@
         <v>26</v>
       </c>
       <c r="B26" s="9">
-        <v>47933</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="54"/>
+        <v>44281</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -3236,10 +3358,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="9">
-        <v>47934</v>
+        <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3249,13 +3371,53 @@
         <v>28</v>
       </c>
       <c r="B28" s="9">
-        <v>47935</v>
+        <v>44283</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="55"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="54"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="56">
+        <v>29</v>
+      </c>
+      <c r="B29" s="57">
+        <v>44285</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="56">
+        <v>30</v>
+      </c>
+      <c r="B30" s="57">
+        <v>44286</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D47FF0-476B-41E6-9456-795892DDA8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5BD1E4-8672-4107-BB6E-02A7DA550ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Januray-2021" sheetId="20" r:id="rId3"/>
     <sheet name="February-2021" sheetId="21" r:id="rId4"/>
     <sheet name="March-2021" sheetId="22" r:id="rId5"/>
+    <sheet name="April-2021" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="146">
   <si>
     <t>Task</t>
   </si>
@@ -419,6 +420,54 @@
   </si>
   <si>
     <t>Issues and development of B2B</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>PArts information not loding in update jobs</t>
+  </si>
+  <si>
+    <t>display parts for job</t>
+  </si>
+  <si>
+    <t>Able to add same parts again and again duplication occurs</t>
+  </si>
+  <si>
+    <t>Duplication occurs by default add all parts then save and check</t>
+  </si>
+  <si>
+    <t>Update Jobs	"App crash on clicking Update and Close button</t>
+  </si>
+  <si>
+    <t>App crash while dleting last parts in update jobs</t>
+  </si>
+  <si>
+    <t>Display error correction in reports</t>
+  </si>
+  <si>
+    <t>ADvance flow</t>
+  </si>
+  <si>
+    <t>billing flow</t>
+  </si>
+  <si>
+    <t>dashbaord</t>
+  </si>
+  <si>
+    <t>cancel billing and some updated getbilling API</t>
+  </si>
+  <si>
+    <t>PurchaseRegister date correction to Calendat</t>
+  </si>
+  <si>
+    <t>RPA-Samsung</t>
+  </si>
+  <si>
+    <t>Hayyai</t>
+  </si>
+  <si>
+    <t>In job sheet report data error in report</t>
   </si>
 </sst>
 </file>
@@ -578,7 +627,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -707,18 +756,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +764,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2462,7 +2526,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2476,7 +2540,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2588,7 +2652,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2602,7 +2666,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="54"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2714,7 +2778,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2728,7 +2792,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -2846,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848AE4EB-720A-404F-9972-264595B5E1DB}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2974,7 +3038,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2989,7 +3053,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3105,7 +3169,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="52"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3118,7 +3182,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="54"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3230,7 +3294,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="52"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3243,7 +3307,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="55"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3361,7 +3425,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="52"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3374,25 +3438,25 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="56">
+      <c r="A29" s="52">
         <v>29</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="53">
         <v>44285</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="55">
         <v>0.7</v>
       </c>
       <c r="F29" s="47" t="s">
@@ -3400,19 +3464,19 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="56">
+      <c r="A30" s="52">
         <v>30</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="53">
         <v>44286</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="55">
         <v>0.7</v>
       </c>
       <c r="F30" s="47" t="s">
@@ -3428,4 +3492,570 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8AC0F-5C38-456E-819F-8D2C7CEEF5B5}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="45">
+        <v>1</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44288</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44289</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44290</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44291</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44292</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44293</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44294</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44295</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44296</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44297</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44298</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="45">
+        <v>1</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44299</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44300</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44301</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44302</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="45">
+        <v>1</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44303</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44304</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44305</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44306</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44307</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44308</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44309</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="45">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44310</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44311</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44312</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44313</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44314</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>44315</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44316</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5BD1E4-8672-4107-BB6E-02A7DA550ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A2AFC-5771-4A29-92F9-E361CF526323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="149">
   <si>
     <t>Task</t>
   </si>
@@ -468,13 +468,22 @@
   </si>
   <si>
     <t>In job sheet report data error in report</t>
+  </si>
+  <si>
+    <t>QC implementation</t>
+  </si>
+  <si>
+    <t>saveBilling corrections</t>
+  </si>
+  <si>
+    <t>QC testing and getBilling correction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +525,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,7 +643,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -764,6 +780,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,19 +798,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2526,7 +2539,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2540,7 +2553,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2652,7 +2665,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2666,7 +2679,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2778,7 +2791,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2792,7 +2805,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -3038,7 +3051,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -3053,7 +3066,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3169,7 +3182,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="56"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3182,7 +3195,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3294,7 +3307,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3307,7 +3320,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="59"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3425,7 +3438,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3438,7 +3451,7 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="59"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
@@ -3498,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8AC0F-5C38-456E-819F-8D2C7CEEF5B5}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3565,7 +3578,7 @@
         <v>44288</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="56" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="45"/>
@@ -3580,7 +3593,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E4" s="45"/>
@@ -3595,7 +3608,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="45"/>
       <c r="F5" s="49"/>
       <c r="G5" s="1"/>
@@ -3629,7 +3642,7 @@
         <v>44292</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="56" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="45"/>
@@ -3646,7 +3659,7 @@
       <c r="C8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="57" t="s">
         <v>133</v>
       </c>
       <c r="E8" s="45">
@@ -3667,7 +3680,7 @@
       <c r="C9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="57" t="s">
         <v>134</v>
       </c>
       <c r="E9" s="45">
@@ -3688,7 +3701,7 @@
       <c r="C10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="57" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="45">
@@ -3707,7 +3720,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="45"/>
@@ -3722,7 +3735,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="45"/>
       <c r="F12" s="49"/>
       <c r="G12" s="1"/>
@@ -3756,7 +3769,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="45"/>
@@ -3771,7 +3784,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="45"/>
       <c r="F15" s="49"/>
       <c r="G15" s="1"/>
@@ -3822,7 +3835,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="45"/>
@@ -3837,7 +3850,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -3955,7 +3968,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="58" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="45"/>
@@ -3970,7 +3983,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4003,10 +4016,18 @@
       <c r="B28" s="9">
         <v>44313</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4016,10 +4037,18 @@
       <c r="B29" s="9">
         <v>44314</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="51"/>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4030,7 +4059,9 @@
         <v>44315</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="48" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" s="45"/>
       <c r="F30" s="51"/>
       <c r="G30" s="1"/>
@@ -4042,10 +4073,18 @@
       <c r="B31" s="9">
         <v>44316</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="51"/>
+      <c r="C31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
   </sheetData>
@@ -4057,5 +4096,6 @@
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A2AFC-5771-4A29-92F9-E361CF526323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F4701-A323-48E6-BCCB-84939D9C3CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="February-2021" sheetId="21" r:id="rId4"/>
     <sheet name="March-2021" sheetId="22" r:id="rId5"/>
     <sheet name="April-2021" sheetId="23" r:id="rId6"/>
+    <sheet name="May-2021" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="162">
   <si>
     <t>Task</t>
   </si>
@@ -477,13 +478,52 @@
   </si>
   <si>
     <t>QC testing and getBilling correction</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>Qccheck implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance billing </t>
+  </si>
+  <si>
+    <t>Parts request change if not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales invoice </t>
+  </si>
+  <si>
+    <t>parts update change</t>
+  </si>
+  <si>
+    <t>Weekoff</t>
+  </si>
+  <si>
+    <t>Sales invoice report</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>credit detail</t>
+  </si>
+  <si>
+    <t>Extended warranty-sales invoice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +576,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +626,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +710,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,6 +853,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,8 +871,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2539,7 +2644,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2553,7 +2658,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2665,7 +2770,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2679,7 +2784,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2791,7 +2896,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2805,7 +2910,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -3051,7 +3156,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -3066,7 +3171,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3182,7 +3287,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3195,7 +3300,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3307,7 +3412,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3320,7 +3425,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3438,7 +3543,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3451,7 +3556,7 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
@@ -3511,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8AC0F-5C38-456E-819F-8D2C7CEEF5B5}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -3593,7 +3698,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E4" s="45"/>
@@ -3608,7 +3713,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="45"/>
       <c r="F5" s="49"/>
       <c r="G5" s="1"/>
@@ -3720,7 +3825,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="45"/>
@@ -3735,7 +3840,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="45"/>
       <c r="F12" s="49"/>
       <c r="G12" s="1"/>
@@ -3769,7 +3874,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="59" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="45"/>
@@ -3784,7 +3889,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="45"/>
       <c r="F15" s="49"/>
       <c r="G15" s="1"/>
@@ -3835,7 +3940,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="45"/>
@@ -3850,7 +3955,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -3968,7 +4073,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="45"/>
@@ -3983,7 +4088,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4019,7 +4124,7 @@
       <c r="C28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="58" t="s">
         <v>146</v>
       </c>
       <c r="E28" s="45">
@@ -4098,4 +4203,577 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273A99D4-6BEF-4014-8A83-94CD19744271}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44317</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44318</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44319</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="45">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44320</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44321</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44322</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44323</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44324</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44325</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44326</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44327</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44328</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44329</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="45">
+        <v>85</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44330</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44332</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44333</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44334</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44335</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44336</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44337</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44338</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44339</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44340</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44341</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44342</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44343</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44344</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>44345</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44346</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="74"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="75"/>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="76"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="77"/>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F4701-A323-48E6-BCCB-84939D9C3CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C89234-46BD-4439-96FF-5CC7CED56224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="March-2021" sheetId="22" r:id="rId5"/>
     <sheet name="April-2021" sheetId="23" r:id="rId6"/>
     <sheet name="May-2021" sheetId="24" r:id="rId7"/>
+    <sheet name="August-2021" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
   <si>
     <t>Task</t>
   </si>
@@ -517,6 +518,21 @@
   </si>
   <si>
     <t>Extended warranty-sales invoice</t>
+  </si>
+  <si>
+    <t>Samsung-RPA</t>
+  </si>
+  <si>
+    <t>Five tasks completed for new popup window</t>
+  </si>
+  <si>
+    <t>Three tasks completed for new popup window</t>
+  </si>
+  <si>
+    <t>GL-framework</t>
+  </si>
+  <si>
+    <t>Started with PRSummary</t>
   </si>
 </sst>
 </file>
@@ -710,7 +726,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -856,27 +872,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,6 +903,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2644,7 +2672,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2658,7 +2686,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="60"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2770,7 +2798,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2784,7 +2812,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2896,7 +2924,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2910,7 +2938,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -3156,7 +3184,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -3171,7 +3199,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="60"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3287,7 +3315,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="59"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3300,7 +3328,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3412,7 +3440,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="59"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3425,7 +3453,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3543,7 +3571,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="59"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3556,7 +3584,7 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
@@ -3698,7 +3726,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E4" s="45"/>
@@ -3713,7 +3741,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="45"/>
       <c r="F5" s="49"/>
       <c r="G5" s="1"/>
@@ -3825,7 +3853,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="45"/>
@@ -3840,7 +3868,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="60"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="45"/>
       <c r="F12" s="49"/>
       <c r="G12" s="1"/>
@@ -3874,7 +3902,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="73" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="45"/>
@@ -3889,7 +3917,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="63"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="45"/>
       <c r="F15" s="49"/>
       <c r="G15" s="1"/>
@@ -3940,7 +3968,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="45"/>
@@ -3955,7 +3983,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="60"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -4073,7 +4101,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="45"/>
@@ -4088,7 +4116,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4209,8 +4237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273A99D4-6BEF-4014-8A83-94CD19744271}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4255,7 +4283,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="1"/>
@@ -4270,7 +4298,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="65"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4291,7 +4319,7 @@
       <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
@@ -4312,7 +4340,7 @@
       <c r="E5" s="45">
         <v>0.7</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -4333,7 +4361,7 @@
       <c r="E6" s="45">
         <v>0.5</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -4354,7 +4382,7 @@
       <c r="E7" s="45">
         <v>0.65</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
@@ -4375,7 +4403,7 @@
       <c r="E8" s="45">
         <v>0.85</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -4388,7 +4416,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="45"/>
@@ -4403,7 +4431,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="60"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="45"/>
       <c r="F10" s="49"/>
       <c r="G10" s="1"/>
@@ -4424,7 +4452,7 @@
       <c r="E11" s="45">
         <v>0.4</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -4445,7 +4473,7 @@
       <c r="E12" s="45">
         <v>0.6</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1"/>
@@ -4479,7 +4507,7 @@
       <c r="C14" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="71" t="s">
         <v>155</v>
       </c>
       <c r="E14" s="45">
@@ -4496,7 +4524,7 @@
         <v>44330</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="45"/>
@@ -4511,7 +4539,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="63"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="45"/>
       <c r="F16" s="49"/>
       <c r="G16" s="1"/>
@@ -4558,7 +4586,7 @@
       <c r="C19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="72" t="s">
         <v>160</v>
       </c>
       <c r="E19" s="45"/>
@@ -4646,7 +4674,7 @@
         <v>44340</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="45"/>
       <c r="F25" s="51"/>
       <c r="G25" s="1"/>
@@ -4659,7 +4687,7 @@
         <v>44341</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4730,38 +4758,38 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="74"/>
+      <c r="B34" s="67"/>
       <c r="C34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="75"/>
+      <c r="B35" s="68"/>
       <c r="C35" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="76"/>
+      <c r="B36" s="69"/>
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="77"/>
+      <c r="B37" s="70"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -4776,4 +4804,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9DA987-69C9-4318-A5BD-575BDA7C92CD}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44410</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="45">
+        <v>1</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44412</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44413</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44414</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44415</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44417</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44418</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44419</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44420</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44421</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44422</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44423</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44424</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44425</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44426</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44428</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44429</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44430</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44433</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44434</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44435</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44436</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>44437</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44438</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>44439</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C89234-46BD-4439-96FF-5CC7CED56224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3549F-3AAE-44CF-8E4C-5FEE864E305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="179">
   <si>
     <t>Task</t>
   </si>
@@ -533,6 +533,42 @@
   </si>
   <si>
     <t>Started with PRSummary</t>
+  </si>
+  <si>
+    <t>completed PR summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return credit completed </t>
+  </si>
+  <si>
+    <t>GL framework</t>
+  </si>
+  <si>
+    <t>RMA reject</t>
+  </si>
+  <si>
+    <t>GL calculation</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>PL framework</t>
+  </si>
+  <si>
+    <t>PartsIO</t>
+  </si>
+  <si>
+    <t>Invoice uodateOW</t>
+  </si>
+  <si>
+    <t>filreread</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>PL Calcualtion</t>
   </si>
 </sst>
 </file>
@@ -904,6 +940,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,18 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2672,7 +2708,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2686,7 +2722,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2798,7 +2834,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2812,7 +2848,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="75"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -2924,7 +2960,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -2938,7 +2974,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -3184,7 +3220,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -3199,7 +3235,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3315,7 +3351,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="73"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3328,7 +3364,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="75"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3440,7 +3476,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="73"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3453,7 +3489,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3571,7 +3607,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="73"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3584,7 +3620,7 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
@@ -3726,7 +3762,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E4" s="45"/>
@@ -3741,7 +3777,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="45"/>
       <c r="F5" s="49"/>
       <c r="G5" s="1"/>
@@ -3853,7 +3889,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="45"/>
@@ -3868,7 +3904,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="74"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="45"/>
       <c r="F12" s="49"/>
       <c r="G12" s="1"/>
@@ -3902,7 +3938,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="77" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="45"/>
@@ -3917,7 +3953,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="45"/>
       <c r="F15" s="49"/>
       <c r="G15" s="1"/>
@@ -3968,7 +4004,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="45"/>
@@ -3983,7 +4019,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -4101,7 +4137,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="45"/>
@@ -4116,7 +4152,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4283,7 +4319,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="82" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="1"/>
@@ -4298,7 +4334,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="79"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4416,7 +4452,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="45"/>
@@ -4431,7 +4467,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="45"/>
       <c r="F10" s="49"/>
       <c r="G10" s="1"/>
@@ -4524,7 +4560,7 @@
         <v>44330</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="77" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="45"/>
@@ -4539,7 +4575,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="45"/>
       <c r="F16" s="49"/>
       <c r="G16" s="1"/>
@@ -4674,7 +4710,7 @@
         <v>44340</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="45"/>
       <c r="F25" s="51"/>
       <c r="G25" s="1"/>
@@ -4687,7 +4723,7 @@
         <v>44341</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4811,7 +4847,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4853,11 +4889,11 @@
         <v>44409</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="28.8">
@@ -4930,10 +4966,18 @@
       <c r="B6" s="9">
         <v>44413</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="81"/>
+      <c r="C6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -4943,10 +4987,18 @@
       <c r="B7" s="9">
         <v>44414</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="81"/>
+      <c r="C7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -4956,10 +5008,12 @@
       <c r="B8" s="9">
         <v>44415</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="81"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -4969,10 +5023,12 @@
       <c r="B9" s="9">
         <v>44416</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="81"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -4982,10 +5038,18 @@
       <c r="B10" s="9">
         <v>44417</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="81"/>
+      <c r="C10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -4995,10 +5059,18 @@
       <c r="B11" s="9">
         <v>44418</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="81"/>
+      <c r="C11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -5008,10 +5080,18 @@
       <c r="B12" s="9">
         <v>44419</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="81"/>
+      <c r="C12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="45">
+        <v>1</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -5021,10 +5101,18 @@
       <c r="B13" s="9">
         <v>44420</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="81"/>
+      <c r="C13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -5034,10 +5122,18 @@
       <c r="B14" s="9">
         <v>44421</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="81"/>
+      <c r="C14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -5047,10 +5143,12 @@
       <c r="B15" s="9">
         <v>44422</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D15" s="48"/>
       <c r="E15" s="45"/>
-      <c r="F15" s="81"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -5060,10 +5158,12 @@
       <c r="B16" s="9">
         <v>44423</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D16" s="48"/>
       <c r="E16" s="45"/>
-      <c r="F16" s="81"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -5073,10 +5173,18 @@
       <c r="B17" s="9">
         <v>44424</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="81"/>
+      <c r="C17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -5086,10 +5194,18 @@
       <c r="B18" s="9">
         <v>44425</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="81"/>
+      <c r="C18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="45">
+        <v>1</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -5099,10 +5215,18 @@
       <c r="B19" s="9">
         <v>44426</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="81"/>
+      <c r="C19" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="45">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -5112,10 +5236,18 @@
       <c r="B20" s="9">
         <v>44427</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="81"/>
+      <c r="C20" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -5125,10 +5257,18 @@
       <c r="B21" s="9">
         <v>44428</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="81"/>
+      <c r="C21" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5138,10 +5278,12 @@
       <c r="B22" s="9">
         <v>44429</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="81"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5151,10 +5293,12 @@
       <c r="B23" s="9">
         <v>44430</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D23" s="44"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="81"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -5164,10 +5308,14 @@
       <c r="B24" s="9">
         <v>44431</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>172</v>
+      </c>
       <c r="E24" s="45"/>
-      <c r="F24" s="81"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5178,9 +5326,9 @@
         <v>44432</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="82"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="81"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -5193,7 +5341,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="48"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="81"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -5206,7 +5354,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="48"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="81"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -5219,7 +5367,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="48"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="81"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5230,9 +5378,9 @@
         <v>44436</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="83"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="81"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5245,7 +5393,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="44"/>
       <c r="E30" s="45"/>
-      <c r="F30" s="81"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -5258,7 +5406,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="44"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="81"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -5271,7 +5419,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="56"/>
       <c r="E32" s="45"/>
-      <c r="F32" s="81"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="1"/>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3549F-3AAE-44CF-8E4C-5FEE864E305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE3681-93E8-4D3D-8863-79E0DC7C8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="184">
   <si>
     <t>Task</t>
   </si>
@@ -569,6 +569,21 @@
   </si>
   <si>
     <t>PL Calcualtion</t>
+  </si>
+  <si>
+    <t>GL testing</t>
+  </si>
+  <si>
+    <t>PL testing</t>
+  </si>
+  <si>
+    <t>Macros convertion</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B API error</t>
+  </si>
+  <si>
+    <t>Sales,throwing error for new</t>
   </si>
 </sst>
 </file>
@@ -4846,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9DA987-69C9-4318-A5BD-575BDA7C92CD}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5314,8 +5329,12 @@
       <c r="D24" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="74"/>
+      <c r="E24" s="45">
+        <v>1</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5325,10 +5344,16 @@
       <c r="B25" s="9">
         <v>44432</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="D25" s="75"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="74"/>
+      <c r="E25" s="45">
+        <v>1</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -5338,10 +5363,16 @@
       <c r="B26" s="9">
         <v>44433</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="D26" s="48"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="74"/>
+      <c r="E26" s="45">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -5351,10 +5382,16 @@
       <c r="B27" s="9">
         <v>44434</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="D27" s="48"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -5364,10 +5401,16 @@
       <c r="B28" s="9">
         <v>44435</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="D28" s="48"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="74"/>
+      <c r="E28" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5396,17 +5439,25 @@
       <c r="F30" s="74"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="28.8">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="9">
         <v>44438</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="74"/>
+      <c r="C31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">

--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE3681-93E8-4D3D-8863-79E0DC7C8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283FCBF-4F87-4BBF-AC28-43430642D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="0" windowWidth="22644" windowHeight="12360" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="April-2021" sheetId="23" r:id="rId6"/>
     <sheet name="May-2021" sheetId="24" r:id="rId7"/>
     <sheet name="August-2021" sheetId="25" r:id="rId8"/>
+    <sheet name="September-2021" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
   <si>
     <t>Task</t>
   </si>
@@ -584,6 +585,33 @@
   </si>
   <si>
     <t>Sales,throwing error for new</t>
+  </si>
+  <si>
+    <t>2021/09/31</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>Worked on errors</t>
+  </si>
+  <si>
+    <t>Rlogic</t>
+  </si>
+  <si>
+    <t>GL code</t>
+  </si>
+  <si>
+    <t>RLogic</t>
+  </si>
+  <si>
+    <t>GL completed,</t>
+  </si>
+  <si>
+    <t>Customisation of standalone demo PL code with Rlogic code</t>
+  </si>
+  <si>
+    <t>Work on PurchaseSummary download email</t>
   </si>
 </sst>
 </file>
@@ -777,7 +805,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -987,6 +1015,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4861,7 +4898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9DA987-69C9-4318-A5BD-575BDA7C92CD}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -5477,4 +5514,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEA7C6C-B6B7-4BB1-8332-833A484913E8}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44440</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44441</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44442</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="45">
+        <v>1</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44443</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44444</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44445</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44446</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44447</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44448</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44449</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44450</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44451</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44452</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44453</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44454</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44455</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44456</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44457</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44458</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44459</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>44460</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44461</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44462</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>44463</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44464</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>44465</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44466</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>44467</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>44468</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44469</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Mamatha.xlsx
+++ b/REVER_DailyTracker_Mamatha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283FCBF-4F87-4BBF-AC28-43430642D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADAEA4-A6F8-45FA-8C1E-EED1D7E19033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="0" windowWidth="22644" windowHeight="12360" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November-2020" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="August-2021" sheetId="25" r:id="rId8"/>
     <sheet name="September-2021" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="204">
   <si>
     <t>Task</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Sales,throwing error for new</t>
   </si>
   <si>
-    <t>2021/09/31</t>
-  </si>
-  <si>
     <t>Hayaai-B2B</t>
   </si>
   <si>
@@ -612,6 +609,42 @@
   </si>
   <si>
     <t>Work on PurchaseSummary download email</t>
+  </si>
+  <si>
+    <t>Return credit work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rlogic </t>
+  </si>
+  <si>
+    <t>mergeGL work</t>
+  </si>
+  <si>
+    <t>RMAReject</t>
+  </si>
+  <si>
+    <t>SAW Calcualation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna </t>
+  </si>
+  <si>
+    <t>Issue fix,Rlogic PL work</t>
+  </si>
+  <si>
+    <t>,issues fix,Rlogic PL</t>
+  </si>
+  <si>
+    <t>Penna,Rlogic</t>
+  </si>
+  <si>
+    <t>PL completed,Penna issue work</t>
+  </si>
+  <si>
+    <t>GSS,Penna</t>
+  </si>
+  <si>
+    <t>macro convertion,Penna issue</t>
   </si>
 </sst>
 </file>
@@ -805,7 +838,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -995,6 +1028,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,14 +1052,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2760,7 +2790,7 @@
         <v>44233</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -2774,7 +2804,7 @@
         <v>44234</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
     </row>
@@ -2886,7 +2916,7 @@
         <v>44240</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="45"/>
@@ -2900,7 +2930,7 @@
         <v>44241</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
     </row>
@@ -3012,7 +3042,7 @@
         <v>44247</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="45"/>
@@ -3026,7 +3056,7 @@
         <v>44248</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
     </row>
@@ -3272,7 +3302,7 @@
         <v>44261</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="45"/>
@@ -3287,7 +3317,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="78"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="45"/>
       <c r="F7" s="49"/>
       <c r="G7" s="1"/>
@@ -3403,7 +3433,7 @@
         <v>44268</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="77"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="45"/>
       <c r="F13" s="49"/>
       <c r="G13" s="1"/>
@@ -3416,7 +3446,7 @@
         <v>44269</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="45"/>
       <c r="F14" s="49"/>
       <c r="G14" s="1"/>
@@ -3528,7 +3558,7 @@
         <v>44275</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="77"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="45"/>
       <c r="F20" s="49"/>
       <c r="G20" s="1"/>
@@ -3541,7 +3571,7 @@
         <v>44276</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="45"/>
       <c r="F21" s="49"/>
       <c r="G21" s="1"/>
@@ -3659,7 +3689,7 @@
         <v>44282</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="77"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="45"/>
       <c r="F27" s="49"/>
       <c r="G27" s="1"/>
@@ -3672,7 +3702,7 @@
         <v>44283</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="80"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="45"/>
       <c r="F28" s="51"/>
       <c r="G28" s="1"/>
@@ -3814,7 +3844,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E4" s="45"/>
@@ -3829,7 +3859,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="45"/>
       <c r="F5" s="49"/>
       <c r="G5" s="1"/>
@@ -3941,7 +3971,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="45"/>
@@ -3956,7 +3986,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="45"/>
       <c r="F12" s="49"/>
       <c r="G12" s="1"/>
@@ -3990,7 +4020,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="78" t="s">
         <v>130</v>
       </c>
       <c r="E14" s="45"/>
@@ -4005,7 +4035,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="45"/>
       <c r="F15" s="49"/>
       <c r="G15" s="1"/>
@@ -4056,7 +4086,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="45"/>
@@ -4071,7 +4101,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="78"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="45"/>
       <c r="F19" s="49"/>
       <c r="G19" s="1"/>
@@ -4189,7 +4219,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="45"/>
@@ -4204,7 +4234,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -4371,7 +4401,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="83" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="1"/>
@@ -4386,7 +4416,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="83"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4504,7 +4534,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="45"/>
@@ -4519,7 +4549,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="45"/>
       <c r="F10" s="49"/>
       <c r="G10" s="1"/>
@@ -4612,7 +4642,7 @@
         <v>44330</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="78" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="45"/>
@@ -4627,7 +4657,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="45"/>
       <c r="F16" s="49"/>
       <c r="G16" s="1"/>
@@ -4762,7 +4792,7 @@
         <v>44340</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="77"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="45"/>
       <c r="F25" s="51"/>
       <c r="G25" s="1"/>
@@ -4775,7 +4805,7 @@
         <v>44341</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="45"/>
       <c r="F26" s="49"/>
       <c r="G26" s="1"/>
@@ -5521,7 +5551,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5566,10 +5596,10 @@
         <v>44440</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>185</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>186</v>
       </c>
       <c r="E2" s="6">
         <v>0.5</v>
@@ -5587,10 +5617,10 @@
         <v>44441</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>187</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>188</v>
       </c>
       <c r="E3" s="6">
         <v>0.5</v>
@@ -5608,10 +5638,10 @@
         <v>44442</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>190</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -5629,7 +5659,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="37"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="6"/>
@@ -5657,10 +5687,10 @@
         <v>44445</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="45">
         <v>0.3</v>
@@ -5678,10 +5708,10 @@
         <v>44446</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="6">
         <v>0.5</v>
@@ -5699,10 +5729,10 @@
         <v>44447</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="45">
         <v>1</v>
@@ -5720,10 +5750,10 @@
         <v>44448</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="60"/>
@@ -5736,8 +5766,6 @@
       <c r="B11" s="9">
         <v>44449</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="48"/>
       <c r="E11" s="45"/>
       <c r="F11" s="74"/>
       <c r="G11" s="1"/>
@@ -5750,7 +5778,9 @@
         <v>44450</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="83" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" s="45"/>
       <c r="F12" s="74"/>
       <c r="G12" s="1"/>
@@ -5763,7 +5793,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="6"/>
       <c r="F13" s="74"/>
       <c r="G13" s="1"/>
@@ -5775,10 +5805,18 @@
       <c r="B14" s="9">
         <v>44452</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="74"/>
+      <c r="C14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="45">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -5788,10 +5826,18 @@
       <c r="B15" s="9">
         <v>44453</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="74"/>
+      <c r="C15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="45">
+        <v>1</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -5801,10 +5847,18 @@
       <c r="B16" s="9">
         <v>44454</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="74"/>
+      <c r="C16" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="45">
+        <v>1</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -5814,10 +5868,18 @@
       <c r="B17" s="9">
         <v>44455</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="74"/>
+      <c r="C17" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="45">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -5827,8 +5889,12 @@
       <c r="B18" s="9">
         <v>44456</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>198</v>
+      </c>
       <c r="E18" s="45"/>
       <c r="F18" s="74"/>
       <c r="G18" s="1"/>
@@ -5841,7 +5907,9 @@
         <v>44457</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="83" t="s">
+        <v>94</v>
+      </c>
       <c r="E19" s="45"/>
       <c r="F19" s="74"/>
       <c r="G19" s="1"/>
@@ -5854,7 +5922,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="45"/>
       <c r="F20" s="74"/>
       <c r="G20" s="1"/>
@@ -5866,10 +5934,18 @@
       <c r="B21" s="9">
         <v>44459</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5879,10 +5955,18 @@
       <c r="B22" s="9">
         <v>44460</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="74"/>
+      <c r="C22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5892,10 +5976,18 @@
       <c r="B23" s="9">
         <v>44461</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -5905,10 +5997,18 @@
       <c r="B24" s="9">
         <v>44462</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="74"/>
+      <c r="C24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5918,10 +6018,18 @@
       <c r="B25" s="9">
         <v>44463</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="74"/>
+      <c r="C25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -5932,7 +6040,9 @@
         <v>44464</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="83" t="s">
+        <v>94</v>
+      </c>
       <c r="E26" s="45"/>
       <c r="F26" s="74"/>
       <c r="G26" s="1"/>
@@ -5945,7 +6055,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="45"/>
       <c r="F27" s="74"/>
       <c r="G27" s="1"/>
@@ -5957,10 +6067,18 @@
       <c r="B28" s="9">
         <v>44466</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="74"/>
+      <c r="C28" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5970,10 +6088,18 @@
       <c r="B29" s="9">
         <v>44467</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="74"/>
+      <c r="C29" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5983,10 +6109,18 @@
       <c r="B30" s="9">
         <v>44468</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="74"/>
+      <c r="C30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -5996,19 +6130,25 @@
       <c r="B31" s="9">
         <v>44469</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="74"/>
+      <c r="C31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="45">
+        <v>1</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="44"/>
       <c r="E32" s="45"/>
@@ -6016,8 +6156,11 @@
       <c r="G32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
